--- a/Source/Html/document/DTTask.xlsx
+++ b/Source/Html/document/DTTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>任务ID</t>
   </si>
@@ -112,6 +112,69 @@
   </si>
   <si>
     <t>pkey</t>
+  </si>
+  <si>
+    <t>onemonth</t>
+  </si>
+  <si>
+    <t>平常的一个月</t>
+  </si>
+  <si>
+    <t>每个人都需要过好每一天</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>吃早餐</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>吃午饭</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>吃晚饭</t>
+  </si>
+  <si>
+    <t>nightlife</t>
+  </si>
+  <si>
+    <t>晚间活动</t>
+  </si>
+  <si>
+    <t>recreation</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>gohome</t>
+  </si>
+  <si>
+    <t>回家</t>
+  </si>
+  <si>
+    <t>饮食</t>
+  </si>
+  <si>
+    <t>娱乐</t>
   </si>
   <si>
     <t>凌晨</t>
@@ -165,9 +228,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,8 +241,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,60 +348,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,56 +392,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,43 +402,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,146 +598,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -532,13 +608,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,24 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,158 +713,217 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,166 +1274,264 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.9469026548673" customWidth="1"/>
-    <col min="2" max="2" width="13.8141592920354" customWidth="1"/>
-    <col min="3" max="3" width="14.0088495575221" customWidth="1"/>
-    <col min="4" max="4" width="12.2212389380531" customWidth="1"/>
-    <col min="5" max="5" width="14.0088495575221" customWidth="1"/>
-    <col min="6" max="6" width="16.8053097345133" customWidth="1"/>
+    <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
+    <col min="2" max="2" width="15.5398230088496" customWidth="1"/>
+    <col min="3" max="3" width="22.7699115044248" customWidth="1"/>
+    <col min="4" max="4" width="15.7345132743363" customWidth="1"/>
+    <col min="5" max="5" width="12.6814159292035" customWidth="1"/>
+    <col min="6" max="6" width="17.7256637168142" customWidth="1"/>
     <col min="7" max="7" width="15.6106194690265" customWidth="1"/>
-    <col min="8" max="8" width="16.3982300884956" customWidth="1"/>
+    <col min="8" max="8" width="18.858407079646" customWidth="1"/>
     <col min="9" max="9" width="14.0796460176991" customWidth="1"/>
-    <col min="10" max="10" width="17.6637168141593" customWidth="1"/>
-    <col min="11" max="11" width="17.3274336283186" customWidth="1"/>
+    <col min="10" max="10" width="17.2654867256637" customWidth="1"/>
+    <col min="11" max="11" width="14.141592920354" customWidth="1"/>
     <col min="12" max="12" width="16.7964601769912" customWidth="1"/>
-    <col min="13" max="13" width="23.5663716814159" customWidth="1"/>
-    <col min="14" max="14" width="18.0619469026549" customWidth="1"/>
+    <col min="13" max="13" width="15.6725663716814" customWidth="1"/>
+    <col min="14" max="14" width="23.0353982300885" customWidth="1"/>
     <col min="15" max="15" width="15.4070796460177" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1303,10 +1544,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1320,106 +1561,122 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
-      </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>46</v>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Html/document/DTTask.xlsx
+++ b/Source/Html/document/DTTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>任务ID</t>
   </si>
@@ -105,12 +105,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>array&lt;string&gt;</t>
   </si>
   <si>
-    <t>int32</t>
-  </si>
-  <si>
     <t>pkey</t>
   </si>
   <si>
@@ -123,6 +123,12 @@
     <t>每个人都需要过好每一天</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>breakfast,gotowork,work,lunch,gohome,dinner,nightlife,sleep</t>
+  </si>
+  <si>
     <t>breakfast</t>
   </si>
   <si>
@@ -150,58 +156,124 @@
     <t>晚间活动</t>
   </si>
   <si>
+    <t>$recreation</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>gotowork</t>
+  </si>
+  <si>
+    <t>去工作</t>
+  </si>
+  <si>
+    <t>itinerary</t>
+  </si>
+  <si>
+    <t>$job</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>gohome</t>
+  </si>
+  <si>
+    <t>回家</t>
+  </si>
+  <si>
+    <t>$home</t>
+  </si>
+  <si>
+    <t>数值类型</t>
+  </si>
+  <si>
+    <t>日常</t>
+  </si>
+  <si>
+    <t>饮食</t>
+  </si>
+  <si>
     <t>recreation</t>
   </si>
   <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>睡觉</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>工作</t>
-  </si>
-  <si>
-    <t>gohome</t>
-  </si>
-  <si>
-    <t>回家</t>
-  </si>
-  <si>
-    <t>饮食</t>
-  </si>
-  <si>
     <t>娱乐</t>
   </si>
   <si>
+    <t>行程</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>dawn</t>
+  </si>
+  <si>
     <t>凌晨</t>
   </si>
   <si>
+    <t>em</t>
+  </si>
+  <si>
     <t>清早</t>
   </si>
   <si>
+    <t>Early morning</t>
+  </si>
+  <si>
+    <t>morn</t>
+  </si>
+  <si>
     <t>早晨</t>
   </si>
   <si>
+    <t>am</t>
+  </si>
+  <si>
     <t>上午</t>
   </si>
   <si>
+    <t>noon</t>
+  </si>
+  <si>
     <t>中午</t>
   </si>
   <si>
+    <t>pm</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
+    <t>evening</t>
+  </si>
+  <si>
     <t>傍晚</t>
   </si>
   <si>
+    <t>night</t>
+  </si>
+  <si>
     <t>夜晚</t>
   </si>
   <si>
+    <t>lan</t>
+  </si>
+  <si>
     <t>深夜</t>
+  </si>
+  <si>
+    <t>late at night</t>
   </si>
   <si>
     <t>说明</t>
@@ -227,18 +299,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -256,15 +334,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,7 +351,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,106 +470,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -414,19 +492,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,163 +648,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +725,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -684,17 +773,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,32 +799,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -750,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,162 +840,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1274,182 +1358,182 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
-    <col min="2" max="2" width="15.5398230088496" customWidth="1"/>
-    <col min="3" max="3" width="22.7699115044248" customWidth="1"/>
-    <col min="4" max="4" width="15.7345132743363" customWidth="1"/>
-    <col min="5" max="5" width="12.6814159292035" customWidth="1"/>
-    <col min="6" max="6" width="17.7256637168142" customWidth="1"/>
-    <col min="7" max="7" width="15.6106194690265" customWidth="1"/>
+    <col min="2" max="2" width="19.9823008849558" customWidth="1"/>
+    <col min="3" max="3" width="22.3097345132743" customWidth="1"/>
+    <col min="4" max="4" width="16.7256637168142" customWidth="1"/>
+    <col min="5" max="5" width="13.6194690265487" customWidth="1"/>
+    <col min="6" max="6" width="16.3982300884956" customWidth="1"/>
+    <col min="7" max="7" width="16.3362831858407" customWidth="1"/>
     <col min="8" max="8" width="18.858407079646" customWidth="1"/>
     <col min="9" max="9" width="14.0796460176991" customWidth="1"/>
     <col min="10" max="10" width="17.2654867256637" customWidth="1"/>
     <col min="11" max="11" width="14.141592920354" customWidth="1"/>
     <col min="12" max="12" width="16.7964601769912" customWidth="1"/>
-    <col min="13" max="13" width="15.6725663716814" customWidth="1"/>
-    <col min="14" max="14" width="23.0353982300885" customWidth="1"/>
+    <col min="13" max="13" width="14.9380530973451" customWidth="1"/>
+    <col min="14" max="14" width="64.1858407079646" customWidth="1"/>
     <col min="15" max="15" width="15.4070796460177" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="K3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="N3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1459,79 +1543,129 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1544,139 +1678,242 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="34.7256637168142" customWidth="1"/>
-    <col min="2" max="2" width="35.9115044247788" customWidth="1"/>
+    <col min="1" max="1" width="30.3451327433628" customWidth="1"/>
+    <col min="2" max="2" width="27.1504424778761" customWidth="1"/>
+    <col min="3" max="3" width="35.9115044247788" customWidth="1"/>
+    <col min="4" max="4" width="25.1681415929204" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
       <c r="B11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
       <c r="B13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
       <c r="B14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
       <c r="B15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
       <c r="B17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
-      </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>67</v>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +1929,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
